--- a/AccountApp/Streamlit/pages/Temp/Excel/DiscriptionCategories.xlsx
+++ b/AccountApp/Streamlit/pages/Temp/Excel/DiscriptionCategories.xlsx
@@ -286,7 +286,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -339,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -350,16 +350,13 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -679,14 +676,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="24.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="24.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="17.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,7 +700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -716,7 +713,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -729,7 +726,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -742,7 +739,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -755,7 +752,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -768,7 +765,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -781,7 +778,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -794,7 +791,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -807,7 +804,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -820,7 +817,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -833,7 +830,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -846,7 +843,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -859,7 +856,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -872,7 +869,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -885,7 +882,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -898,7 +895,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -911,7 +908,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -937,7 +934,7 @@
       <c r="D19" s="5"/>
       <c r="E19" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -950,7 +947,7 @@
       <c r="D20" s="5"/>
       <c r="E20" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
@@ -1061,7 +1058,7 @@
       <c r="B29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="7"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="4">
         <v>4.7</v>
       </c>
@@ -1243,7 +1240,7 @@
       <c r="B43" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="7"/>
+      <c r="C43" s="5"/>
       <c r="D43" s="6">
         <v>8</v>
       </c>
@@ -1620,7 +1617,7 @@
       <c r="B72" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C72" s="7"/>
+      <c r="C72" s="5"/>
       <c r="D72" s="4">
         <v>3.99</v>
       </c>
@@ -1982,7 +1979,7 @@
       <c r="B100" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C100" s="7"/>
+      <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="3"/>
     </row>
